--- a/data/nzd0201/nzd0201.xlsx
+++ b/data/nzd0201/nzd0201.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G692"/>
+  <dimension ref="A1:G702"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17890,7 +17890,9 @@
       <c r="C691" t="n">
         <v>358.9366666666667</v>
       </c>
-      <c r="D691" t="inlineStr"/>
+      <c r="D691" t="n">
+        <v>371.07</v>
+      </c>
       <c r="E691" t="n">
         <v>372.0977777777778</v>
       </c>
@@ -17921,6 +17923,276 @@
       <c r="G692" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B693" t="n">
+        <v>327.1855555555555</v>
+      </c>
+      <c r="C693" t="n">
+        <v>347.0355555555556</v>
+      </c>
+      <c r="D693" t="n">
+        <v>347.59</v>
+      </c>
+      <c r="E693" t="n">
+        <v>352.5070370370371</v>
+      </c>
+      <c r="F693" t="n">
+        <v>360.1805882352941</v>
+      </c>
+      <c r="G693" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-28 22:00:03+00:00</t>
+        </is>
+      </c>
+      <c r="B694" t="n">
+        <v>362.3055555555555</v>
+      </c>
+      <c r="C694" t="n">
+        <v>364.3255555555555</v>
+      </c>
+      <c r="D694" t="n">
+        <v>357.17</v>
+      </c>
+      <c r="E694" t="n">
+        <v>357.7103703703704</v>
+      </c>
+      <c r="F694" t="n">
+        <v>363.2394117647058</v>
+      </c>
+      <c r="G694" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B695" t="n">
+        <v>352.2122222222222</v>
+      </c>
+      <c r="C695" t="n">
+        <v>353.9022222222222</v>
+      </c>
+      <c r="D695" t="n">
+        <v>360.6</v>
+      </c>
+      <c r="E695" t="n">
+        <v>357.9881481481481</v>
+      </c>
+      <c r="F695" t="n">
+        <v>363.3070588235294</v>
+      </c>
+      <c r="G695" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B696" t="n">
+        <v>350.5911111111111</v>
+      </c>
+      <c r="C696" t="n">
+        <v>362.2411111111111</v>
+      </c>
+      <c r="D696" t="n">
+        <v>345.53</v>
+      </c>
+      <c r="E696" t="n">
+        <v>349.9674074074074</v>
+      </c>
+      <c r="F696" t="n">
+        <v>362.7464705882353</v>
+      </c>
+      <c r="G696" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-22 22:00:02+00:00</t>
+        </is>
+      </c>
+      <c r="B697" t="n">
+        <v>353.4388888888889</v>
+      </c>
+      <c r="C697" t="n">
+        <v>356.4188888888889</v>
+      </c>
+      <c r="D697" t="n">
+        <v>363.98</v>
+      </c>
+      <c r="E697" t="n">
+        <v>363.4792592592593</v>
+      </c>
+      <c r="F697" t="n">
+        <v>368.7082352941176</v>
+      </c>
+      <c r="G697" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:06:10+00:00</t>
+        </is>
+      </c>
+      <c r="B698" t="n">
+        <v>331.8555555555556</v>
+      </c>
+      <c r="C698" t="n">
+        <v>342.4055555555556</v>
+      </c>
+      <c r="D698" t="n">
+        <v>354.14</v>
+      </c>
+      <c r="E698" t="n">
+        <v>356.167037037037</v>
+      </c>
+      <c r="F698" t="n">
+        <v>363.7070588235294</v>
+      </c>
+      <c r="G698" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B699" t="n">
+        <v>351.7677777777778</v>
+      </c>
+      <c r="C699" t="n">
+        <v>368.0977777777778</v>
+      </c>
+      <c r="D699" t="n">
+        <v>366.44</v>
+      </c>
+      <c r="E699" t="n">
+        <v>369.5785185185185</v>
+      </c>
+      <c r="F699" t="n">
+        <v>371.5164705882353</v>
+      </c>
+      <c r="G699" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B700" t="n">
+        <v>345.5988888888889</v>
+      </c>
+      <c r="C700" t="n">
+        <v>352.2288888888889</v>
+      </c>
+      <c r="D700" t="n">
+        <v>363.3</v>
+      </c>
+      <c r="E700" t="n">
+        <v>362.9925925925926</v>
+      </c>
+      <c r="F700" t="n">
+        <v>359.2270588235294</v>
+      </c>
+      <c r="G700" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-23 22:00:02+00:00</t>
+        </is>
+      </c>
+      <c r="B701" t="n">
+        <v>362.3555555555556</v>
+      </c>
+      <c r="C701" t="n">
+        <v>365.0055555555555</v>
+      </c>
+      <c r="D701" t="n">
+        <v>355.81</v>
+      </c>
+      <c r="E701" t="n">
+        <v>363.867037037037</v>
+      </c>
+      <c r="F701" t="n">
+        <v>364.5870588235294</v>
+      </c>
+      <c r="G701" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B702" t="n">
+        <v>360.2188888888889</v>
+      </c>
+      <c r="C702" t="n">
+        <v>368.3588888888889</v>
+      </c>
+      <c r="D702" t="n">
+        <v>351.35</v>
+      </c>
+      <c r="E702" t="n">
+        <v>354.1959259259259</v>
+      </c>
+      <c r="F702" t="n">
+        <v>360.7464705882353</v>
+      </c>
+      <c r="G702" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -17935,7 +18207,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B722"/>
+  <dimension ref="A1:B732"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25163,6 +25435,106 @@
       </c>
       <c r="B722" t="n">
         <v>-0.49</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B723" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>2024-11-28 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B724" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B725" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B726" t="n">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>2024-12-22 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B727" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B728" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B729" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B730" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>2025-01-23 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B731" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B732" t="n">
+        <v>-0.41</v>
       </c>
     </row>
   </sheetData>
@@ -25331,28 +25703,28 @@
         <v>0.0462</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04403251712138356</v>
+        <v>0.03776071703062765</v>
       </c>
       <c r="J2" t="n">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="K2" t="n">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0009767244697850286</v>
+        <v>0.0007275159614881233</v>
       </c>
       <c r="M2" t="n">
-        <v>8.023519370939416</v>
+        <v>8.031040164279641</v>
       </c>
       <c r="N2" t="n">
-        <v>101.2811249844158</v>
+        <v>101.820350902954</v>
       </c>
       <c r="O2" t="n">
-        <v>10.06385239281737</v>
+        <v>10.09060706315304</v>
       </c>
       <c r="P2" t="n">
-        <v>350.5623787762194</v>
+        <v>350.6244218218761</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -25408,28 +25780,28 @@
         <v>0.0509</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08422993429055205</v>
+        <v>0.09511427791229152</v>
       </c>
       <c r="J3" t="n">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="K3" t="n">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002880944084269088</v>
+        <v>0.003756919103889533</v>
       </c>
       <c r="M3" t="n">
-        <v>9.182116638318691</v>
+        <v>9.158040921319831</v>
       </c>
       <c r="N3" t="n">
-        <v>125.4505918977768</v>
+        <v>124.729173574559</v>
       </c>
       <c r="O3" t="n">
-        <v>11.20047284259807</v>
+        <v>11.16822159408377</v>
       </c>
       <c r="P3" t="n">
-        <v>352.6214382756749</v>
+        <v>352.5123070413354</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -25485,28 +25857,28 @@
         <v>0.054</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1314902075665864</v>
+        <v>0.1565912013355175</v>
       </c>
       <c r="J4" t="n">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="K4" t="n">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006050266726865705</v>
+        <v>0.008773572068819568</v>
       </c>
       <c r="M4" t="n">
-        <v>9.491257925948545</v>
+        <v>9.474386738654873</v>
       </c>
       <c r="N4" t="n">
-        <v>146.2146214817782</v>
+        <v>145.3803178029469</v>
       </c>
       <c r="O4" t="n">
-        <v>12.09192381227149</v>
+        <v>12.05737607454238</v>
       </c>
       <c r="P4" t="n">
-        <v>347.7449707038191</v>
+        <v>347.4956862900604</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -25556,28 +25928,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.2956074636906755</v>
+        <v>0.3129217818828866</v>
       </c>
       <c r="J5" t="n">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="K5" t="n">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03164980498617942</v>
+        <v>0.03626264727530137</v>
       </c>
       <c r="M5" t="n">
-        <v>9.498903397343097</v>
+        <v>9.433981747116148</v>
       </c>
       <c r="N5" t="n">
-        <v>136.9650431365365</v>
+        <v>135.6191439082687</v>
       </c>
       <c r="O5" t="n">
-        <v>11.7032065322516</v>
+        <v>11.64556327140378</v>
       </c>
       <c r="P5" t="n">
-        <v>346.1677393338916</v>
+        <v>345.994177763059</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -25633,28 +26005,28 @@
         <v>0.1067</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2335097286955311</v>
+        <v>0.2453026128321698</v>
       </c>
       <c r="J6" t="n">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="K6" t="n">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01831862058888367</v>
+        <v>0.02082179381648752</v>
       </c>
       <c r="M6" t="n">
-        <v>9.864514903615193</v>
+        <v>9.748634248900101</v>
       </c>
       <c r="N6" t="n">
-        <v>150.8799445156313</v>
+        <v>148.656175757614</v>
       </c>
       <c r="O6" t="n">
-        <v>12.28331976770251</v>
+        <v>12.1924638919955</v>
       </c>
       <c r="P6" t="n">
-        <v>354.397830633005</v>
+        <v>354.2802289981506</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -25691,7 +26063,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G692"/>
+  <dimension ref="A1:G702"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48849,7 +49221,11 @@
           <t>-37.36030608715507,175.93797519209124</t>
         </is>
       </c>
-      <c r="D691" t="inlineStr"/>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>-37.361023439025836,175.9380073890546</t>
+        </is>
+      </c>
       <c r="E691" t="inlineStr">
         <is>
           <t>-37.36173258674469,175.93794927598702</t>
@@ -48891,6 +49267,376 @@
         </is>
       </c>
     </row>
+    <row r="693">
+      <c r="A693" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>-37.35956697708867,175.93773501724496</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>-37.36029515418066,175.93784161139334</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>-37.361007319483136,175.93774323087305</t>
+        </is>
+      </c>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>-37.36172423152994,175.9377284760828</t>
+        </is>
+      </c>
+      <c r="F693" t="inlineStr">
+        <is>
+          <t>-37.362439701608075,175.9377627495178</t>
+        </is>
+      </c>
+      <c r="G693" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-28 22:00:03+00:00</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>-37.35960133210309,175.93812893058745</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>-37.360311037616036,175.93803567817903</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>-37.36101389643835,175.93785100920226</t>
+        </is>
+      </c>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>-37.361726450729364,175.9377871209026</t>
+        </is>
+      </c>
+      <c r="F694" t="inlineStr">
+        <is>
+          <t>-37.36244073876891,175.9377972389505</t>
+        </is>
+      </c>
+      <c r="G694" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>-37.3595914587594,175.93801572159967</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>-37.36030146227342,175.93791868437208</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>-37.36101625121136,175.93788959789723</t>
+        </is>
+      </c>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>-37.36172656919958,175.93779025163187</t>
+        </is>
+      </c>
+      <c r="F695" t="inlineStr">
+        <is>
+          <t>-37.36244076170601,175.9377980016976</t>
+        </is>
+      </c>
+      <c r="G695" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>-37.359589872971036,175.93799753887245</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>-37.36030912276103,175.93801228191015</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>-37.36100590521884,175.93772005515876</t>
+        </is>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>-37.36172314837815,175.93769985286963</t>
+        </is>
+      </c>
+      <c r="F696" t="inlineStr">
+        <is>
+          <t>-37.362440571627126,175.93779168084575</t>
+        </is>
+      </c>
+      <c r="G696" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-22 22:00:02+00:00</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>-37.35959265869607,175.93802948015446</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>-37.36030377420729,175.93794693199533</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>-37.3610185716458,175.9379276240763</t>
+        </is>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>-37.36172891110157,175.9378521398889</t>
+        </is>
+      </c>
+      <c r="F697" t="inlineStr">
+        <is>
+          <t>-37.362442593067605,175.93785890207738</t>
+        </is>
+      </c>
+      <c r="G697" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:06:10+00:00</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>-37.359571545443146,175.93778739693622</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>-37.36029090078262,175.93778964325918</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>-37.36101181626387,175.93781692064798</t>
+        </is>
+      </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>-37.36172579250734,175.93776972657088</t>
+        </is>
+      </c>
+      <c r="F698" t="inlineStr">
+        <is>
+          <t>-37.36244089733395,175.93780251185422</t>
+        </is>
+      </c>
+      <c r="G698" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>-37.35959102399933,175.93801073661615</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>-37.36031450292009,175.938078018444</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>-37.36102026047492,175.93795529993545</t>
+        </is>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>-37.361731512334245,175.93792088235793</t>
+        </is>
+      </c>
+      <c r="F699" t="inlineStr">
+        <is>
+          <t>-37.36244354523552,175.93789056603035</t>
+        </is>
+      </c>
+      <c r="G699" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>-37.35958498950768,175.9379415450492</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>-37.36029992506327,175.93789990250937</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>-37.36101810481383,175.937919973839</t>
+        </is>
+      </c>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>-37.36172870354461,175.93784665485109</t>
+        </is>
+      </c>
+      <c r="F700" t="inlineStr">
+        <is>
+          <t>-37.36243937829107,175.93775199810045</t>
+        </is>
+      </c>
+      <c r="G700" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-23 22:00:02+00:00</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>-37.35960138101304,175.93812949139823</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>-37.36031166229054,175.93804331065076</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>-37.36101296276391,175.9378357087289</t>
+        </is>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>-37.36172907648355,175.93785651038706</t>
+        </is>
+      </c>
+      <c r="F701" t="inlineStr">
+        <is>
+          <t>-37.36244119571483,175.93781243419878</t>
+        </is>
+      </c>
+      <c r="G701" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>-37.35959929092545,175.93810552608548</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>-37.360314742785924,175.93808094921354</t>
+        </is>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>-37.361009900846895,175.93778553217825</t>
+        </is>
+      </c>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>-37.36172495183705,175.9377475109163</t>
+        </is>
+      </c>
+      <c r="F702" t="inlineStr">
+        <is>
+          <t>-37.36243989348359,175.9377691300628</t>
+        </is>
+      </c>
+      <c r="G702" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0201/nzd0201.xlsx
+++ b/data/nzd0201/nzd0201.xlsx
@@ -25548,7 +25548,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25639,35 +25639,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -25726,27 +25731,28 @@
       <c r="P2" t="n">
         <v>350.6244218218761</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.9340652480111 -37.35924685441642, 175.9443656573003 -37.36014508570847)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.9340652480111</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-37.35924685441642</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.9443656573003</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-37.36014508570847</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.9392154526557</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-37.35969597006245</v>
       </c>
     </row>
@@ -25803,27 +25809,28 @@
       <c r="P3" t="n">
         <v>352.5123070413354</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.93394642038706 -37.359976282240964, 175.94425417101547 -37.36081981807374)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.9339464203871</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-37.35997628224096</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.9442541710155</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-37.36081981807374</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.9391002957013</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-37.36039805015736</v>
       </c>
     </row>
@@ -25880,27 +25887,28 @@
       <c r="P4" t="n">
         <v>347.4956862900604</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.93383273089435 -37.36076862151776, 175.94416451217603 -37.361398990847405)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.9338327308944</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-37.36076862151776</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.944164512176</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-37.36139899084741</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.9389986215352</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-37.36108380618258</v>
       </c>
     </row>
@@ -25951,27 +25959,28 @@
       <c r="P5" t="n">
         <v>345.994177763059</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (175.9337555049109 -37.36157382061997, 175.94410592966867 -37.36196539117732)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>175.9337555049109</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-37.36157382061997</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>175.9441059296687</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-37.36196539117732</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>175.9389307172898</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-37.36176960589864</v>
       </c>
     </row>
@@ -26028,27 +26037,28 @@
       <c r="P6" t="n">
         <v>354.2802289981506</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (175.93370157432489 -37.362317503809905, 175.94405635500877 -37.36262879432129)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>175.9337015743249</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-37.3623175038099</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>175.9440563550088</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-37.36262879432129</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>175.9388789646668</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-37.36247314906559</v>
       </c>
     </row>

--- a/data/nzd0201/nzd0201.xlsx
+++ b/data/nzd0201/nzd0201.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G702"/>
+  <dimension ref="A1:G711"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18191,6 +18191,249 @@
         <v>360.7464705882353</v>
       </c>
       <c r="G702" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-04 21:59:42+00:00</t>
+        </is>
+      </c>
+      <c r="B703" t="n">
+        <v>362.9611111111111</v>
+      </c>
+      <c r="C703" t="n">
+        <v>365.2311111111111</v>
+      </c>
+      <c r="D703" t="n">
+        <v>372.32</v>
+      </c>
+      <c r="E703" t="n">
+        <v>373.8207407407408</v>
+      </c>
+      <c r="F703" t="n">
+        <v>377.5076470588235</v>
+      </c>
+      <c r="G703" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B704" t="n">
+        <v>342.8622222222222</v>
+      </c>
+      <c r="C704" t="n">
+        <v>334.6822222222222</v>
+      </c>
+      <c r="D704" t="n">
+        <v>336.5</v>
+      </c>
+      <c r="E704" t="n">
+        <v>344.4814814814815</v>
+      </c>
+      <c r="F704" t="n">
+        <v>350.8035294117647</v>
+      </c>
+      <c r="G704" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B705" t="n">
+        <v>352.4788888888889</v>
+      </c>
+      <c r="C705" t="n">
+        <v>358.7288888888889</v>
+      </c>
+      <c r="D705" t="n">
+        <v>366.24</v>
+      </c>
+      <c r="E705" t="n">
+        <v>363.3025925925926</v>
+      </c>
+      <c r="F705" t="n">
+        <v>368.7335294117647</v>
+      </c>
+      <c r="G705" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-20 21:59:32+00:00</t>
+        </is>
+      </c>
+      <c r="B706" t="n">
+        <v>358.6633333333333</v>
+      </c>
+      <c r="C706" t="n">
+        <v>356.9933333333333</v>
+      </c>
+      <c r="D706" t="n">
+        <v>363.42</v>
+      </c>
+      <c r="E706" t="n">
+        <v>361.6422222222222</v>
+      </c>
+      <c r="F706" t="n">
+        <v>365.4411764705882</v>
+      </c>
+      <c r="G706" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B707" t="n">
+        <v>359.6388888888889</v>
+      </c>
+      <c r="C707" t="n">
+        <v>364.3088888888889</v>
+      </c>
+      <c r="D707" t="n">
+        <v>353.38</v>
+      </c>
+      <c r="E707" t="n">
+        <v>354.0292592592592</v>
+      </c>
+      <c r="F707" t="n">
+        <v>368.5088235294118</v>
+      </c>
+      <c r="G707" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B708" t="n">
+        <v>340.7488888888889</v>
+      </c>
+      <c r="C708" t="n">
+        <v>342.4188888888889</v>
+      </c>
+      <c r="D708" t="n">
+        <v>337.97</v>
+      </c>
+      <c r="E708" t="n">
+        <v>348.8625925925926</v>
+      </c>
+      <c r="F708" t="n">
+        <v>366.0370588235294</v>
+      </c>
+      <c r="G708" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-05 21:59:29+00:00</t>
+        </is>
+      </c>
+      <c r="B709" t="n">
+        <v>354.9122222222222</v>
+      </c>
+      <c r="C709" t="n">
+        <v>348.4222222222222</v>
+      </c>
+      <c r="D709" t="n">
+        <v>350.74</v>
+      </c>
+      <c r="E709" t="n">
+        <v>357.2648148148148</v>
+      </c>
+      <c r="F709" t="n">
+        <v>360.0388235294118</v>
+      </c>
+      <c r="G709" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B710" t="n">
+        <v>337.1566666666667</v>
+      </c>
+      <c r="C710" t="n">
+        <v>339.2866666666667</v>
+      </c>
+      <c r="D710" t="n">
+        <v>340.79</v>
+      </c>
+      <c r="E710" t="n">
+        <v>340.2311111111111</v>
+      </c>
+      <c r="F710" t="n">
+        <v>357.3041176470588</v>
+      </c>
+      <c r="G710" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-21 21:59:16+00:00</t>
+        </is>
+      </c>
+      <c r="B711" t="n">
+        <v>342.09</v>
+      </c>
+      <c r="C711" t="n">
+        <v>336.02</v>
+      </c>
+      <c r="D711" t="n">
+        <v>336.02</v>
+      </c>
+      <c r="E711" t="n">
+        <v>341.4766666666667</v>
+      </c>
+      <c r="F711" t="n">
+        <v>351.3111764705882</v>
+      </c>
+      <c r="G711" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -18207,7 +18450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B732"/>
+  <dimension ref="A1:B741"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25535,6 +25778,96 @@
       </c>
       <c r="B732" t="n">
         <v>-0.41</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>2025-03-04 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B733" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B734" t="n">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B735" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>2025-03-20 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B736" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B737" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B738" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>2025-04-05 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B739" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B740" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>2025-04-21 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B741" t="n">
+        <v>-0.09</v>
       </c>
     </row>
   </sheetData>
@@ -25708,28 +26041,28 @@
         <v>0.0462</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03776071703062765</v>
+        <v>0.03356788927358235</v>
       </c>
       <c r="J2" t="n">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="K2" t="n">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0007275159614881233</v>
+        <v>0.0005857495479679731</v>
       </c>
       <c r="M2" t="n">
-        <v>8.031040164279641</v>
+        <v>8.035605207682416</v>
       </c>
       <c r="N2" t="n">
-        <v>101.820350902954</v>
+        <v>101.5392824621964</v>
       </c>
       <c r="O2" t="n">
-        <v>10.09060706315304</v>
+        <v>10.07667020707716</v>
       </c>
       <c r="P2" t="n">
-        <v>350.6244218218761</v>
+        <v>350.6669963646706</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25786,28 +26119,28 @@
         <v>0.0509</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09511427791229152</v>
+        <v>0.07932376355631608</v>
       </c>
       <c r="J3" t="n">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="K3" t="n">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003756919103889533</v>
+        <v>0.00264646215416009</v>
       </c>
       <c r="M3" t="n">
-        <v>9.158040921319831</v>
+        <v>9.190119355830896</v>
       </c>
       <c r="N3" t="n">
-        <v>124.729173574559</v>
+        <v>125.2185881745635</v>
       </c>
       <c r="O3" t="n">
-        <v>11.16822159408377</v>
+        <v>11.19011117793579</v>
       </c>
       <c r="P3" t="n">
-        <v>352.5123070413354</v>
+        <v>352.6724244658346</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25864,28 +26197,28 @@
         <v>0.054</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1565912013355175</v>
+        <v>0.1545283920343516</v>
       </c>
       <c r="J4" t="n">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="K4" t="n">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008773572068819568</v>
+        <v>0.008652403081549354</v>
       </c>
       <c r="M4" t="n">
-        <v>9.474386738654873</v>
+        <v>9.507450550995769</v>
       </c>
       <c r="N4" t="n">
-        <v>145.3803178029469</v>
+        <v>145.810267402089</v>
       </c>
       <c r="O4" t="n">
-        <v>12.05737607454238</v>
+        <v>12.07519223044043</v>
       </c>
       <c r="P4" t="n">
-        <v>347.4956862900604</v>
+        <v>347.5169704579516</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25936,28 +26269,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.3129217818828866</v>
+        <v>0.3126309716871495</v>
       </c>
       <c r="J5" t="n">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="K5" t="n">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03626264727530137</v>
+        <v>0.03682166589026648</v>
       </c>
       <c r="M5" t="n">
-        <v>9.433981747116148</v>
+        <v>9.427608906002673</v>
       </c>
       <c r="N5" t="n">
-        <v>135.6191439082687</v>
+        <v>135.2687717106613</v>
       </c>
       <c r="O5" t="n">
-        <v>11.64556327140378</v>
+        <v>11.63051038048895</v>
       </c>
       <c r="P5" t="n">
-        <v>345.994177763059</v>
+        <v>345.9975724932003</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26014,28 +26347,28 @@
         <v>0.1067</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2453026128321698</v>
+        <v>0.2521232160469142</v>
       </c>
       <c r="J6" t="n">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="K6" t="n">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02082179381648752</v>
+        <v>0.0224728331894315</v>
       </c>
       <c r="M6" t="n">
-        <v>9.748634248900101</v>
+        <v>9.706970748256539</v>
       </c>
       <c r="N6" t="n">
-        <v>148.656175757614</v>
+        <v>147.485330435915</v>
       </c>
       <c r="O6" t="n">
-        <v>12.1924638919955</v>
+        <v>12.14435385007844</v>
       </c>
       <c r="P6" t="n">
-        <v>354.2802289981506</v>
+        <v>354.2116309038857</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26073,7 +26406,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G702"/>
+  <dimension ref="A1:G711"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49647,6 +49980,339 @@
         </is>
       </c>
     </row>
+    <row r="703">
+      <c r="A703" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-04 21:59:42+00:00</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>-37.359601973366665,175.93813628343972</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>-37.36031186949455,175.93804584233663</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>-37.36102429716197,175.93802145199223</t>
+        </is>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>-37.36173332154778,175.93796869485854</t>
+        </is>
+      </c>
+      <c r="F703" t="inlineStr">
+        <is>
+          <t>-37.362445576591675,175.93795811889265</t>
+        </is>
+      </c>
+      <c r="G703" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>-37.359582312449696,175.93791085001783</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>-37.360283805610024,175.93770295488383</t>
+        </is>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>-37.36099970574409,175.93761846453444</t>
+        </is>
+      </c>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>-37.361720808607444,175.93763802305702</t>
+        </is>
+      </c>
+      <c r="F704" t="inlineStr">
+        <is>
+          <t>-37.36243652204871,175.93765701951045</t>
+        </is>
+      </c>
+      <c r="G704" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>-37.35959171961534,175.9380187125898</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>-37.36030589628098,175.93797285994737</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>-37.361020123172,175.93795304986557</t>
+        </is>
+      </c>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>-37.36172883575558,175.937850148745</t>
+        </is>
+      </c>
+      <c r="F705" t="inlineStr">
+        <is>
+          <t>-37.36244260164394,175.93785918727843</t>
+        </is>
+      </c>
+      <c r="G705" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-20 21:59:32+00:00</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>-37.35959776927774,175.93808807864056</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>-37.36030430191928,175.937953379687</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>-37.36101818719597,175.93792132388086</t>
+        </is>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>-37.36172812762792,175.93783143533219</t>
+        </is>
+      </c>
+      <c r="F706" t="inlineStr">
+        <is>
+          <t>-37.362441485319,175.93782206470968</t>
+        </is>
+      </c>
+      <c r="G706" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>-37.35959872356854,175.93809902068097</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>-37.36031102230539,175.93803549110865</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>-37.361011294502376,175.93780837038372</t>
+        </is>
+      </c>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>-37.36172488075425,175.9377456324788</t>
+        </is>
+      </c>
+      <c r="F707" t="inlineStr">
+        <is>
+          <t>-37.362442525454185,175.9378566536316</t>
+        </is>
+      </c>
+      <c r="G707" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>-37.359580245142396,175.93788714642588</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>-37.36029091303146,175.93778979291542</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>-37.36100071496692,175.93763500254232</t>
+        </is>
+      </c>
+      <c r="E708" t="inlineStr">
+        <is>
+          <t>-37.36172267717255,175.93768740091627</t>
+        </is>
+      </c>
+      <c r="F708" t="inlineStr">
+        <is>
+          <t>-37.36244168736331,175.93782878351652</t>
+        </is>
+      </c>
+      <c r="G708" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-05 21:59:29+00:00</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>-37.3595940999222,175.93804600537558</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>-37.36029642805205,175.93785717564458</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>-37.36100948206286,175.93777866946638</t>
+        </is>
+      </c>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>-37.361726260702966,175.93778209921288</t>
+        </is>
+      </c>
+      <c r="F709" t="inlineStr">
+        <is>
+          <t>-37.36243965353941,175.93776115106522</t>
+        </is>
+      </c>
+      <c r="G709" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>-37.3595767311437,175.93784685530684</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>-37.360288035569596,175.9377546361696</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>-37.3610026510205,175.9376667285174</t>
+        </is>
+      </c>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>-37.36171899578406,175.93759011872865</t>
+        </is>
+      </c>
+      <c r="F710" t="inlineStr">
+        <is>
+          <t>-37.36243872626874,175.93773031618613</t>
+        </is>
+      </c>
+      <c r="G710" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-21 21:59:16+00:00</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>-37.35958155704616,175.93790218861056</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>-37.36028503458712,175.93771797039207</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>-37.36099937620144,175.93761306436866</t>
+        </is>
+      </c>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>-37.36171952702737,175.9376041569175</t>
+        </is>
+      </c>
+      <c r="F711" t="inlineStr">
+        <is>
+          <t>-37.36243669418337,175.9376627434296</t>
+        </is>
+      </c>
+      <c r="G711" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0201/nzd0201.xlsx
+++ b/data/nzd0201/nzd0201.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G711"/>
+  <dimension ref="A1:G713"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18434,6 +18434,60 @@
         <v>351.3111764705882</v>
       </c>
       <c r="G711" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B712" t="n">
+        <v>346.46</v>
+      </c>
+      <c r="C712" t="n">
+        <v>359.54</v>
+      </c>
+      <c r="D712" t="n">
+        <v>350.97</v>
+      </c>
+      <c r="E712" t="n">
+        <v>356.9733333333333</v>
+      </c>
+      <c r="F712" t="n">
+        <v>359.4758823529411</v>
+      </c>
+      <c r="G712" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:26+00:00</t>
+        </is>
+      </c>
+      <c r="B713" t="n">
+        <v>341.3811111111111</v>
+      </c>
+      <c r="C713" t="n">
+        <v>346.9911111111111</v>
+      </c>
+      <c r="D713" t="n">
+        <v>349.41</v>
+      </c>
+      <c r="E713" t="n">
+        <v>347.9007407407408</v>
+      </c>
+      <c r="F713" t="n">
+        <v>357.2847058823529</v>
+      </c>
+      <c r="G713" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -18450,7 +18504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B741"/>
+  <dimension ref="A1:B743"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25868,6 +25922,26 @@
       </c>
       <c r="B741" t="n">
         <v>-0.09</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B742" t="n">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B743" t="n">
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
@@ -26041,28 +26115,28 @@
         <v>0.0462</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03356788927358235</v>
+        <v>0.02863647214289147</v>
       </c>
       <c r="J2" t="n">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="K2" t="n">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0005857495479679731</v>
+        <v>0.0004283509155617038</v>
       </c>
       <c r="M2" t="n">
-        <v>8.035605207682416</v>
+        <v>8.03550360244204</v>
       </c>
       <c r="N2" t="n">
-        <v>101.5392824621964</v>
+        <v>101.413860244488</v>
       </c>
       <c r="O2" t="n">
-        <v>10.07667020707716</v>
+        <v>10.07044488811135</v>
       </c>
       <c r="P2" t="n">
-        <v>350.6669963646706</v>
+        <v>350.7170063148662</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26119,28 +26193,28 @@
         <v>0.0509</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07932376355631608</v>
+        <v>0.07838244756899526</v>
       </c>
       <c r="J3" t="n">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="K3" t="n">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00264646215416009</v>
+        <v>0.002598738574830506</v>
       </c>
       <c r="M3" t="n">
-        <v>9.190119355830896</v>
+        <v>9.180545513456021</v>
       </c>
       <c r="N3" t="n">
-        <v>125.2185881745635</v>
+        <v>124.9374119199312</v>
       </c>
       <c r="O3" t="n">
-        <v>11.19011117793579</v>
+        <v>11.17754051300782</v>
       </c>
       <c r="P3" t="n">
-        <v>352.6724244658346</v>
+        <v>352.6820262013167</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26197,28 +26271,28 @@
         <v>0.054</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1545283920343516</v>
+        <v>0.1536863167415808</v>
       </c>
       <c r="J4" t="n">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="K4" t="n">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008652403081549354</v>
+        <v>0.008616430995622482</v>
       </c>
       <c r="M4" t="n">
-        <v>9.507450550995769</v>
+        <v>9.479211045822721</v>
       </c>
       <c r="N4" t="n">
-        <v>145.810267402089</v>
+        <v>145.3211186612765</v>
       </c>
       <c r="O4" t="n">
-        <v>12.07519223044043</v>
+        <v>12.05492093135731</v>
       </c>
       <c r="P4" t="n">
-        <v>347.5169704579516</v>
+        <v>347.5255044278299</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26269,28 +26343,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.3126309716871495</v>
+        <v>0.3116095855105393</v>
       </c>
       <c r="J5" t="n">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="K5" t="n">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03682166589026648</v>
+        <v>0.03680614744429911</v>
       </c>
       <c r="M5" t="n">
-        <v>9.427608906002673</v>
+        <v>9.411491518844658</v>
       </c>
       <c r="N5" t="n">
-        <v>135.2687717106613</v>
+        <v>134.8902680122</v>
       </c>
       <c r="O5" t="n">
-        <v>11.63051038048895</v>
+        <v>11.61422696576057</v>
       </c>
       <c r="P5" t="n">
-        <v>345.9975724932003</v>
+        <v>346.008004420309</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26347,28 +26421,28 @@
         <v>0.1067</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2521232160469142</v>
+        <v>0.2506135304491724</v>
       </c>
       <c r="J6" t="n">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="K6" t="n">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0224728331894315</v>
+        <v>0.02235489677166558</v>
       </c>
       <c r="M6" t="n">
-        <v>9.706970748256539</v>
+        <v>9.682242843408593</v>
       </c>
       <c r="N6" t="n">
-        <v>147.485330435915</v>
+        <v>146.997960979361</v>
       </c>
       <c r="O6" t="n">
-        <v>12.14435385007844</v>
+        <v>12.12427156489663</v>
       </c>
       <c r="P6" t="n">
-        <v>354.2116309038857</v>
+        <v>354.2269720521059</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26406,7 +26480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G711"/>
+  <dimension ref="A1:G713"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50313,6 +50387,80 @@
         </is>
       </c>
     </row>
+    <row r="712">
+      <c r="A712" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>-37.35958583186083,175.93795120345368</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>-37.360306641404094,175.93798196403853</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>-37.36100963996509,175.93778125704628</t>
+        </is>
+      </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>-37.361726136387986,175.93777881403432</t>
+        </is>
+      </c>
+      <c r="F712" t="inlineStr">
+        <is>
+          <t>-37.36243946266073,175.93775480368313</t>
+        </is>
+      </c>
+      <c r="G712" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:26+00:00</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>-37.359580863596044,175.93789423756343</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>-37.36029511335142,175.93784111253913</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>-37.36100856897496,175.93776370650457</t>
+        </is>
+      </c>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>-37.361722266939864,175.93767656024494</t>
+        </is>
+      </c>
+      <c r="F713" t="inlineStr">
+        <is>
+          <t>-37.36243871968667,175.93773009731086</t>
+        </is>
+      </c>
+      <c r="G713" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0201/nzd0201.xlsx
+++ b/data/nzd0201/nzd0201.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G713"/>
+  <dimension ref="A1:G716"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18490,6 +18490,87 @@
       <c r="G713" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B714" t="n">
+        <v>351.3122222222222</v>
+      </c>
+      <c r="C714" t="n">
+        <v>357.0922222222222</v>
+      </c>
+      <c r="D714" t="n">
+        <v>349.65</v>
+      </c>
+      <c r="E714" t="n">
+        <v>364.9648148148148</v>
+      </c>
+      <c r="F714" t="n">
+        <v>370.9882352941176</v>
+      </c>
+      <c r="G714" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-31 21:59:17+00:00</t>
+        </is>
+      </c>
+      <c r="B715" t="n">
+        <v>353.9322222222222</v>
+      </c>
+      <c r="C715" t="n">
+        <v>357.8322222222222</v>
+      </c>
+      <c r="D715" t="n">
+        <v>369.32</v>
+      </c>
+      <c r="E715" t="n">
+        <v>370.8614814814815</v>
+      </c>
+      <c r="F715" t="n">
+        <v>376.0894117647059</v>
+      </c>
+      <c r="G715" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B716" t="n">
+        <v>334.3655555555555</v>
+      </c>
+      <c r="C716" t="n">
+        <v>345.6555555555556</v>
+      </c>
+      <c r="D716" t="n">
+        <v>341.38</v>
+      </c>
+      <c r="E716" t="n">
+        <v>349.2103703703704</v>
+      </c>
+      <c r="F716" t="n">
+        <v>365.9529411764706</v>
+      </c>
+      <c r="G716" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -18504,7 +18585,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B743"/>
+  <dimension ref="A1:B746"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25942,6 +26023,36 @@
       </c>
       <c r="B743" t="n">
         <v>0.32</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B744" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>2025-05-31 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B745" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B746" t="n">
+        <v>-0.65</v>
       </c>
     </row>
   </sheetData>
@@ -26115,28 +26226,28 @@
         <v>0.0462</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02863647214289147</v>
+        <v>0.02389281449498368</v>
       </c>
       <c r="J2" t="n">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="K2" t="n">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0004283509155617038</v>
+        <v>0.0002997976052910856</v>
       </c>
       <c r="M2" t="n">
-        <v>8.03550360244204</v>
+        <v>8.029583690814148</v>
       </c>
       <c r="N2" t="n">
-        <v>101.413860244488</v>
+        <v>101.4019999929592</v>
       </c>
       <c r="O2" t="n">
-        <v>10.07044488811135</v>
+        <v>10.0698560065653</v>
       </c>
       <c r="P2" t="n">
-        <v>350.7170063148662</v>
+        <v>350.7652895434059</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26193,28 +26304,28 @@
         <v>0.0509</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07838244756899526</v>
+        <v>0.077246625614955</v>
       </c>
       <c r="J3" t="n">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="K3" t="n">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002598738574830506</v>
+        <v>0.002546318775081713</v>
       </c>
       <c r="M3" t="n">
-        <v>9.180545513456021</v>
+        <v>9.159178165930925</v>
       </c>
       <c r="N3" t="n">
-        <v>124.9374119199312</v>
+        <v>124.4740537691693</v>
       </c>
       <c r="O3" t="n">
-        <v>11.17754051300782</v>
+        <v>11.15679406322306</v>
       </c>
       <c r="P3" t="n">
-        <v>352.6820262013167</v>
+        <v>352.6936465663148</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26271,28 +26382,28 @@
         <v>0.054</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1536863167415808</v>
+        <v>0.1556055101873463</v>
       </c>
       <c r="J4" t="n">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="K4" t="n">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008616430995622482</v>
+        <v>0.008876396234065442</v>
       </c>
       <c r="M4" t="n">
-        <v>9.479211045822721</v>
+        <v>9.482015071512087</v>
       </c>
       <c r="N4" t="n">
-        <v>145.3211186612765</v>
+        <v>145.3001921964088</v>
       </c>
       <c r="O4" t="n">
-        <v>12.05492093135731</v>
+        <v>12.05405293651927</v>
       </c>
       <c r="P4" t="n">
-        <v>347.5255044278299</v>
+        <v>347.5060365347094</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26343,28 +26454,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.3116095855105393</v>
+        <v>0.3190077603955143</v>
       </c>
       <c r="J5" t="n">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="K5" t="n">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03680614744429911</v>
+        <v>0.03868036739343217</v>
       </c>
       <c r="M5" t="n">
-        <v>9.411491518844658</v>
+        <v>9.416231336523868</v>
       </c>
       <c r="N5" t="n">
-        <v>134.8902680122</v>
+        <v>134.9237062858723</v>
       </c>
       <c r="O5" t="n">
-        <v>11.61422696576057</v>
+        <v>11.61566641591744</v>
       </c>
       <c r="P5" t="n">
-        <v>346.008004420309</v>
+        <v>345.9323674240896</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26421,28 +26532,28 @@
         <v>0.1067</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2506135304491724</v>
+        <v>0.2607505796396241</v>
       </c>
       <c r="J6" t="n">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="K6" t="n">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02235489677166558</v>
+        <v>0.02429266089784576</v>
       </c>
       <c r="M6" t="n">
-        <v>9.682242843408593</v>
+        <v>9.678901340034818</v>
       </c>
       <c r="N6" t="n">
-        <v>146.997960979361</v>
+        <v>146.872249853534</v>
       </c>
       <c r="O6" t="n">
-        <v>12.12427156489663</v>
+        <v>12.11908618062987</v>
       </c>
       <c r="P6" t="n">
-        <v>354.2269720521059</v>
+        <v>354.1236793587492</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26480,7 +26591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G713"/>
+  <dimension ref="A1:G716"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37886,7 +37997,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>-37.35960394606441,175.93815890280783</t>
+          <t>-37.35960394606442,175.93815890280783</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -50461,6 +50572,117 @@
         </is>
       </c>
     </row>
+    <row r="714">
+      <c r="A714" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>-37.359590578370046,175.93800562700807</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>-37.360304392763275,175.9379544896378</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>-37.361008733742835,175.9377664065879</t>
+        </is>
+      </c>
+      <c r="E714" t="inlineStr">
+        <is>
+          <t>-37.36172954467003,175.93786888302952</t>
+        </is>
+      </c>
+      <c r="F714" t="inlineStr">
+        <is>
+          <t>-37.36244336613128,175.93788460997047</t>
+        </is>
+      </c>
+      <c r="G714" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-31 21:59:17+00:00</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>-37.35959314127883,175.93803501348634</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>-37.36030507256187,175.93796279556182</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>-37.36102223763243,175.93798770094227</t>
+        </is>
+      </c>
+      <c r="E715" t="inlineStr">
+        <is>
+          <t>-37.361732059491494,175.93793534215368</t>
+        </is>
+      </c>
+      <c r="F715" t="inlineStr">
+        <is>
+          <t>-37.362445095731196,175.9379421277339</t>
+        </is>
+      </c>
+      <c r="G715" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>-37.359574000801686,175.93781554962027</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>-37.36029388643162,175.93782612197057</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>-37.361003056080264,175.93767336622153</t>
+        </is>
+      </c>
+      <c r="E716" t="inlineStr">
+        <is>
+          <t>-37.36172282550057,175.93769132058915</t>
+        </is>
+      </c>
+      <c r="F716" t="inlineStr">
+        <is>
+          <t>-37.362441658841774,175.93782783505713</t>
+        </is>
+      </c>
+      <c r="G716" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0201/nzd0201.xlsx
+++ b/data/nzd0201/nzd0201.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G716"/>
+  <dimension ref="A1:G719"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18569,6 +18569,87 @@
         <v>365.9529411764706</v>
       </c>
       <c r="G716" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-08 21:59:23+00:00</t>
+        </is>
+      </c>
+      <c r="B717" t="n">
+        <v>332.7655555555555</v>
+      </c>
+      <c r="C717" t="n">
+        <v>336.6755555555555</v>
+      </c>
+      <c r="D717" t="n">
+        <v>336.57</v>
+      </c>
+      <c r="E717" t="n">
+        <v>350.4937037037037</v>
+      </c>
+      <c r="F717" t="n">
+        <v>358.9517647058824</v>
+      </c>
+      <c r="G717" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B718" t="n">
+        <v>345.1544444444444</v>
+      </c>
+      <c r="C718" t="n">
+        <v>346.3944444444444</v>
+      </c>
+      <c r="D718" t="n">
+        <v>347.96</v>
+      </c>
+      <c r="E718" t="n">
+        <v>351.8762962962963</v>
+      </c>
+      <c r="F718" t="n">
+        <v>361.8582352941176</v>
+      </c>
+      <c r="G718" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-16 21:59:27+00:00</t>
+        </is>
+      </c>
+      <c r="B719" t="n">
+        <v>345.2433333333333</v>
+      </c>
+      <c r="C719" t="n">
+        <v>351.3733333333333</v>
+      </c>
+      <c r="D719" t="n">
+        <v>347.19</v>
+      </c>
+      <c r="E719" t="n">
+        <v>351.5855555555555</v>
+      </c>
+      <c r="F719" t="n">
+        <v>366.51</v>
+      </c>
+      <c r="G719" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -18585,7 +18666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B746"/>
+  <dimension ref="A1:B749"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26053,6 +26134,36 @@
       </c>
       <c r="B746" t="n">
         <v>-0.65</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>2025-06-08 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B747" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B748" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B749" t="n">
+        <v>0.51</v>
       </c>
     </row>
   </sheetData>
@@ -26226,28 +26337,28 @@
         <v>0.0462</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02389281449498368</v>
+        <v>0.01406870672246971</v>
       </c>
       <c r="J2" t="n">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="K2" t="n">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002997976052910856</v>
+        <v>0.0001042945607091506</v>
       </c>
       <c r="M2" t="n">
-        <v>8.029583690814148</v>
+        <v>8.043354365089751</v>
       </c>
       <c r="N2" t="n">
-        <v>101.4019999929592</v>
+        <v>101.5891013228019</v>
       </c>
       <c r="O2" t="n">
-        <v>10.0698560065653</v>
+        <v>10.07914189416946</v>
       </c>
       <c r="P2" t="n">
-        <v>350.7652895434059</v>
+        <v>350.8653220122642</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26304,28 +26415,28 @@
         <v>0.0509</v>
       </c>
       <c r="I3" t="n">
-        <v>0.077246625614955</v>
+        <v>0.06781436705058649</v>
       </c>
       <c r="J3" t="n">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="K3" t="n">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002546318775081713</v>
+        <v>0.001972596488895584</v>
       </c>
       <c r="M3" t="n">
-        <v>9.159178165930925</v>
+        <v>9.164261219127749</v>
       </c>
       <c r="N3" t="n">
-        <v>124.4740537691693</v>
+        <v>124.5171340419184</v>
       </c>
       <c r="O3" t="n">
-        <v>11.15679406322306</v>
+        <v>11.15872457057339</v>
       </c>
       <c r="P3" t="n">
-        <v>352.6936465663148</v>
+        <v>352.7900439716632</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26382,28 +26493,28 @@
         <v>0.054</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1556055101873463</v>
+        <v>0.1483010996856453</v>
       </c>
       <c r="J4" t="n">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="K4" t="n">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008876396234065442</v>
+        <v>0.008125751606152254</v>
       </c>
       <c r="M4" t="n">
-        <v>9.482015071512087</v>
+        <v>9.469954054357443</v>
       </c>
       <c r="N4" t="n">
-        <v>145.3001921964088</v>
+        <v>144.98948883073</v>
       </c>
       <c r="O4" t="n">
-        <v>12.05405293651927</v>
+        <v>12.04115811833438</v>
       </c>
       <c r="P4" t="n">
-        <v>347.5060365347094</v>
+        <v>347.5803562259235</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26454,28 +26565,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.3190077603955143</v>
+        <v>0.3163232356979973</v>
       </c>
       <c r="J5" t="n">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="K5" t="n">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03868036739343217</v>
+        <v>0.03840743026720905</v>
       </c>
       <c r="M5" t="n">
-        <v>9.416231336523868</v>
+        <v>9.383808725618886</v>
       </c>
       <c r="N5" t="n">
-        <v>134.9237062858723</v>
+        <v>134.2887967901762</v>
       </c>
       <c r="O5" t="n">
-        <v>11.61566641591744</v>
+        <v>11.58830431038882</v>
       </c>
       <c r="P5" t="n">
-        <v>345.9323674240896</v>
+        <v>345.9598664331298</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26532,28 +26643,28 @@
         <v>0.1067</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2607505796396241</v>
+        <v>0.2623149615330742</v>
       </c>
       <c r="J6" t="n">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="K6" t="n">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02429266089784576</v>
+        <v>0.02480772962507394</v>
       </c>
       <c r="M6" t="n">
-        <v>9.678901340034818</v>
+        <v>9.642905308035479</v>
       </c>
       <c r="N6" t="n">
-        <v>146.872249853534</v>
+        <v>146.1818343480867</v>
       </c>
       <c r="O6" t="n">
-        <v>12.11908618062987</v>
+        <v>12.09056799112791</v>
       </c>
       <c r="P6" t="n">
-        <v>354.1236793587492</v>
+        <v>354.1076991577055</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26591,7 +26702,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G716"/>
+  <dimension ref="A1:G719"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50683,6 +50794,117 @@
         </is>
       </c>
     </row>
+    <row r="717">
+      <c r="A717" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-08 21:59:23+00:00</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>-37.35957243563367,175.93779760368605</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>-37.36028563682602,175.9377253284901</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>-37.36099975380239,175.93761925205862</t>
+        </is>
+      </c>
+      <c r="E717" t="inlineStr">
+        <is>
+          <t>-37.36172337284405,175.93770578455778</t>
+        </is>
+      </c>
+      <c r="F717" t="inlineStr">
+        <is>
+          <t>-37.36243928494581,175.93774889405154</t>
+        </is>
+      </c>
+      <c r="G717" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>-37.35958455474445,175.93793656006633</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>-37.3602945652186,175.93783441542152</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>-37.36100757350099,175.9377473935014</t>
+        </is>
+      </c>
+      <c r="E718" t="inlineStr">
+        <is>
+          <t>-37.36172396251973,175.93772136724039</t>
+        </is>
+      </c>
+      <c r="F718" t="inlineStr">
+        <is>
+          <t>-37.36244027045215,175.93778166564508</t>
+        </is>
+      </c>
+      <c r="G718" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-16 21:59:27+00:00</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>-37.3595846416971,175.93793755706292</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>-37.36029913910472,175.9378902995652</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>-37.36100704486907,175.93773873073434</t>
+        </is>
+      </c>
+      <c r="E719" t="inlineStr">
+        <is>
+          <t>-37.361723838518984,175.93771809041053</t>
+        </is>
+      </c>
+      <c r="F719" t="inlineStr">
+        <is>
+          <t>-37.36244184772199,175.93783411611352</t>
+        </is>
+      </c>
+      <c r="G719" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0201/nzd0201.xlsx
+++ b/data/nzd0201/nzd0201.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G719"/>
+  <dimension ref="A1:G724"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18650,6 +18650,141 @@
         <v>366.51</v>
       </c>
       <c r="G719" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B720" t="n">
+        <v>351.2877777777778</v>
+      </c>
+      <c r="C720" t="n">
+        <v>340.0677777777778</v>
+      </c>
+      <c r="D720" t="n">
+        <v>340.76</v>
+      </c>
+      <c r="E720" t="n">
+        <v>346.0351851851852</v>
+      </c>
+      <c r="F720" t="n">
+        <v>358.5847058823529</v>
+      </c>
+      <c r="G720" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B721" t="n">
+        <v>348.5266666666667</v>
+      </c>
+      <c r="C721" t="n">
+        <v>347.6966666666667</v>
+      </c>
+      <c r="D721" t="n">
+        <v>346.41</v>
+      </c>
+      <c r="E721" t="n">
+        <v>353.5211111111111</v>
+      </c>
+      <c r="F721" t="n">
+        <v>359.3405882352941</v>
+      </c>
+      <c r="G721" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-11 21:59:52+00:00</t>
+        </is>
+      </c>
+      <c r="B722" t="n">
+        <v>350.8244444444445</v>
+      </c>
+      <c r="C722" t="n">
+        <v>347.0144444444445</v>
+      </c>
+      <c r="D722" t="n">
+        <v>353.28</v>
+      </c>
+      <c r="E722" t="n">
+        <v>346.5862962962963</v>
+      </c>
+      <c r="F722" t="n">
+        <v>347.2582352941176</v>
+      </c>
+      <c r="G722" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B723" t="n">
+        <v>340.9455555555556</v>
+      </c>
+      <c r="C723" t="n">
+        <v>347.7555555555556</v>
+      </c>
+      <c r="D723" t="n">
+        <v>342.37</v>
+      </c>
+      <c r="E723" t="n">
+        <v>350.4337037037037</v>
+      </c>
+      <c r="F723" t="n">
+        <v>360.6717647058824</v>
+      </c>
+      <c r="G723" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-19 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B724" t="n">
+        <v>352.9133333333333</v>
+      </c>
+      <c r="C724" t="n">
+        <v>359.3433333333333</v>
+      </c>
+      <c r="D724" t="n">
+        <v>342.1</v>
+      </c>
+      <c r="E724" t="n">
+        <v>349.5988888888889</v>
+      </c>
+      <c r="F724" t="n">
+        <v>360.4264705882353</v>
+      </c>
+      <c r="G724" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -18666,7 +18801,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B749"/>
+  <dimension ref="A1:B754"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26164,6 +26299,56 @@
       </c>
       <c r="B749" t="n">
         <v>0.51</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B750" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B751" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>2025-08-11 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B752" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B753" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>2025-08-19 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B754" t="n">
+        <v>-0.75</v>
       </c>
     </row>
   </sheetData>
@@ -26337,28 +26522,28 @@
         <v>0.0462</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01406870672246971</v>
+        <v>0.01040199461804865</v>
       </c>
       <c r="J2" t="n">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="K2" t="n">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001042945607091506</v>
+        <v>5.786743873281708e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>8.043354365089751</v>
+        <v>8.003419843364451</v>
       </c>
       <c r="N2" t="n">
-        <v>101.5891013228019</v>
+        <v>100.9497750355068</v>
       </c>
       <c r="O2" t="n">
-        <v>10.07914189416946</v>
+        <v>10.04737652501919</v>
       </c>
       <c r="P2" t="n">
-        <v>350.8653220122642</v>
+        <v>350.9029834983282</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26415,28 +26600,28 @@
         <v>0.0509</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06781436705058649</v>
+        <v>0.05808001090349498</v>
       </c>
       <c r="J3" t="n">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="K3" t="n">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001972596488895584</v>
+        <v>0.0014645697968938</v>
       </c>
       <c r="M3" t="n">
-        <v>9.164261219127749</v>
+        <v>9.156323537694707</v>
       </c>
       <c r="N3" t="n">
-        <v>124.5171340419184</v>
+        <v>124.1134543337002</v>
       </c>
       <c r="O3" t="n">
-        <v>11.15872457057339</v>
+        <v>11.14062181090895</v>
       </c>
       <c r="P3" t="n">
-        <v>352.7900439716632</v>
+        <v>352.8902866255569</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26493,28 +26678,28 @@
         <v>0.054</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1483010996856453</v>
+        <v>0.138083436525861</v>
       </c>
       <c r="J4" t="n">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="K4" t="n">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008125751606152254</v>
+        <v>0.007145000191050577</v>
       </c>
       <c r="M4" t="n">
-        <v>9.469954054357443</v>
+        <v>9.447416407165074</v>
       </c>
       <c r="N4" t="n">
-        <v>144.98948883073</v>
+        <v>144.2882967979334</v>
       </c>
       <c r="O4" t="n">
-        <v>12.04115811833438</v>
+        <v>12.01200636021865</v>
       </c>
       <c r="P4" t="n">
-        <v>347.5803562259235</v>
+        <v>347.6851999912632</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26565,28 +26750,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.3163232356979973</v>
+        <v>0.3085901263860331</v>
       </c>
       <c r="J5" t="n">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="K5" t="n">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03840743026720905</v>
+        <v>0.03713792468414945</v>
       </c>
       <c r="M5" t="n">
-        <v>9.383808725618886</v>
+        <v>9.34800691364357</v>
       </c>
       <c r="N5" t="n">
-        <v>134.2887967901762</v>
+        <v>133.4331453205989</v>
       </c>
       <c r="O5" t="n">
-        <v>11.58830431038882</v>
+        <v>11.55132656107509</v>
       </c>
       <c r="P5" t="n">
-        <v>345.9598664331298</v>
+        <v>346.0397154518782</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26643,28 +26828,28 @@
         <v>0.1067</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2623149615330742</v>
+        <v>0.2565035687054753</v>
       </c>
       <c r="J6" t="n">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="K6" t="n">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02480772962507394</v>
+        <v>0.02408412457378883</v>
       </c>
       <c r="M6" t="n">
-        <v>9.642905308035479</v>
+        <v>9.595142888171267</v>
       </c>
       <c r="N6" t="n">
-        <v>146.1818343480867</v>
+        <v>145.2688407210323</v>
       </c>
       <c r="O6" t="n">
-        <v>12.09056799112791</v>
+        <v>12.05275241266626</v>
       </c>
       <c r="P6" t="n">
-        <v>354.1076991577055</v>
+        <v>354.1674862427154</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26702,7 +26887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G719"/>
+  <dimension ref="A1:G724"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50905,6 +51090,191 @@
         </is>
       </c>
     </row>
+    <row r="720">
+      <c r="A720" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>-37.35959055445822,175.93800535283395</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>-37.36028875314977,175.93776340353097</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>-37.361002630424224,175.937666391007</t>
+        </is>
+      </c>
+      <c r="E720" t="inlineStr">
+        <is>
+          <t>-37.36172147127198,175.93765553426832</t>
+        </is>
+      </c>
+      <c r="F720" t="inlineStr">
+        <is>
+          <t>-37.36243916048533,175.93774475531964</t>
+        </is>
+      </c>
+      <c r="G720" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>-37.35958785350513,175.93797438362506</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>-37.36029576151543,175.9378490318496</t>
+        </is>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>-37.36100650937114,175.93772995546385</t>
+        </is>
+      </c>
+      <c r="E721" t="inlineStr">
+        <is>
+          <t>-37.3617246640305,175.93773990533148</t>
+        </is>
+      </c>
+      <c r="F721" t="inlineStr">
+        <is>
+          <t>-37.36243941678598,175.937753278189</t>
+        </is>
+      </c>
+      <c r="G721" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-11 21:59:52+00:00</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>-37.35959010122039,175.93800015598873</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>-37.360295134786774,175.93784137443757</t>
+        </is>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>-37.36101122584951,175.93780724534895</t>
+        </is>
+      </c>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>-37.36172170632374,175.93766174563478</t>
+        </is>
+      </c>
+      <c r="F722" t="inlineStr">
+        <is>
+          <t>-37.36243531989082,175.93761704493272</t>
+        </is>
+      </c>
+      <c r="G722" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>-37.35958043752607,175.9378893522806</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>-37.36029581561414,175.9378496928314</t>
+        </is>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>-37.361003735755986,175.9376845040642</t>
+        </is>
+      </c>
+      <c r="E723" t="inlineStr">
+        <is>
+          <t>-37.361723347254,175.93770510832027</t>
+        </is>
+      </c>
+      <c r="F723" t="inlineStr">
+        <is>
+          <t>-37.36243986815285,175.93776828772477</t>
+        </is>
+      </c>
+      <c r="G723" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-19 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>-37.359592144592966,175.9380235854113</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>-37.36030646073734,175.93797975660817</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>-37.361003550389974,175.93768146647074</t>
+        </is>
+      </c>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>-37.36172299120445,175.93769569943564</t>
+        </is>
+      </c>
+      <c r="F724" t="inlineStr">
+        <is>
+          <t>-37.36243978498022,175.93776552193756</t>
+        </is>
+      </c>
+      <c r="G724" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0201/nzd0201.xlsx
+++ b/data/nzd0201/nzd0201.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G724"/>
+  <dimension ref="A1:G727"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18787,6 +18787,87 @@
       <c r="G724" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-27 21:59:54+00:00</t>
+        </is>
+      </c>
+      <c r="B725" t="n">
+        <v>345.7033333333333</v>
+      </c>
+      <c r="C725" t="n">
+        <v>343.4033333333333</v>
+      </c>
+      <c r="D725" t="n">
+        <v>332.83</v>
+      </c>
+      <c r="E725" t="n">
+        <v>327.4822222222222</v>
+      </c>
+      <c r="F725" t="n">
+        <v>332.8476470588236</v>
+      </c>
+      <c r="G725" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-04 22:00:02+00:00</t>
+        </is>
+      </c>
+      <c r="B726" t="n">
+        <v>348.0244444444444</v>
+      </c>
+      <c r="C726" t="n">
+        <v>358.2744444444444</v>
+      </c>
+      <c r="D726" t="n">
+        <v>346.59</v>
+      </c>
+      <c r="E726" t="n">
+        <v>351.282962962963</v>
+      </c>
+      <c r="F726" t="n">
+        <v>358.8535294117647</v>
+      </c>
+      <c r="G726" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-12 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B727" t="n">
+        <v>356.4944444444445</v>
+      </c>
+      <c r="C727" t="n">
+        <v>352.5944444444444</v>
+      </c>
+      <c r="D727" t="n">
+        <v>363.47</v>
+      </c>
+      <c r="E727" t="n">
+        <v>345.3362962962963</v>
+      </c>
+      <c r="F727" t="n">
+        <v>349.3947058823529</v>
+      </c>
+      <c r="G727" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -18801,7 +18882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B754"/>
+  <dimension ref="A1:B757"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26349,6 +26430,36 @@
       </c>
       <c r="B754" t="n">
         <v>-0.75</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>2025-08-27 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B755" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>2025-09-04 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B756" t="n">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>2025-09-12 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B757" t="n">
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>
@@ -26522,28 +26633,28 @@
         <v>0.0462</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01040199461804865</v>
+        <v>0.009381584246633342</v>
       </c>
       <c r="J2" t="n">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="K2" t="n">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="L2" t="n">
-        <v>5.786743873281708e-05</v>
+        <v>4.74855760745907e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>8.003419843364451</v>
+        <v>7.987337141062368</v>
       </c>
       <c r="N2" t="n">
-        <v>100.9497750355068</v>
+        <v>100.5692887912088</v>
       </c>
       <c r="O2" t="n">
-        <v>10.04737652501919</v>
+        <v>10.02842404324871</v>
       </c>
       <c r="P2" t="n">
-        <v>350.9029834983282</v>
+        <v>350.9134540329281</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26600,28 +26711,28 @@
         <v>0.0509</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05808001090349498</v>
+        <v>0.0552924326085306</v>
       </c>
       <c r="J3" t="n">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="K3" t="n">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0014645697968938</v>
+        <v>0.001338185254553426</v>
       </c>
       <c r="M3" t="n">
-        <v>9.156323537694707</v>
+        <v>9.13885545202252</v>
       </c>
       <c r="N3" t="n">
-        <v>124.1134543337002</v>
+        <v>123.7304771209962</v>
       </c>
       <c r="O3" t="n">
-        <v>11.14062181090895</v>
+        <v>11.12342020787654</v>
       </c>
       <c r="P3" t="n">
-        <v>352.8902866255569</v>
+        <v>352.9190684475165</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26678,28 +26789,28 @@
         <v>0.054</v>
       </c>
       <c r="I4" t="n">
-        <v>0.138083436525861</v>
+        <v>0.1346691519776407</v>
       </c>
       <c r="J4" t="n">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="K4" t="n">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007145000191050577</v>
+        <v>0.006825380433823525</v>
       </c>
       <c r="M4" t="n">
-        <v>9.447416407165074</v>
+        <v>9.457822627471323</v>
       </c>
       <c r="N4" t="n">
-        <v>144.2882967979334</v>
+        <v>144.4165154722974</v>
       </c>
       <c r="O4" t="n">
-        <v>12.01200636021865</v>
+        <v>12.01734227990105</v>
       </c>
       <c r="P4" t="n">
-        <v>347.6851999912632</v>
+        <v>347.7202342959935</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26750,28 +26861,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.3085901263860331</v>
+        <v>0.2967176069714823</v>
       </c>
       <c r="J5" t="n">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="K5" t="n">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03713792468414945</v>
+        <v>0.03443519916685356</v>
       </c>
       <c r="M5" t="n">
-        <v>9.34800691364357</v>
+        <v>9.366848601238575</v>
       </c>
       <c r="N5" t="n">
-        <v>133.4331453205989</v>
+        <v>134.0612862035962</v>
       </c>
       <c r="O5" t="n">
-        <v>11.55132656107509</v>
+        <v>11.57848376099376</v>
       </c>
       <c r="P5" t="n">
-        <v>346.0397154518782</v>
+        <v>346.162647247577</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26828,28 +26939,28 @@
         <v>0.1067</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2565035687054753</v>
+        <v>0.2434077158407037</v>
       </c>
       <c r="J6" t="n">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="K6" t="n">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02408412457378883</v>
+        <v>0.02172570257514672</v>
       </c>
       <c r="M6" t="n">
-        <v>9.595142888171267</v>
+        <v>9.622648367863933</v>
       </c>
       <c r="N6" t="n">
-        <v>145.2688407210323</v>
+        <v>146.0653996103642</v>
       </c>
       <c r="O6" t="n">
-        <v>12.05275241266626</v>
+        <v>12.08575192573322</v>
       </c>
       <c r="P6" t="n">
-        <v>354.1674862427154</v>
+        <v>354.3026143303815</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26887,7 +26998,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G724"/>
+  <dimension ref="A1:G727"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51275,6 +51386,117 @@
         </is>
       </c>
     </row>
+    <row r="725">
+      <c r="A725" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-27 21:59:54+00:00</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>-37.35958509167699,175.93794271652018</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>-37.36029181740359,175.93780084253513</t>
+        </is>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>-37.36099718610957,175.93757717576776</t>
+        </is>
+      </c>
+      <c r="E725" t="inlineStr">
+        <is>
+          <t>-37.36171355814454,175.93744643079532</t>
+        </is>
+      </c>
+      <c r="F725" t="inlineStr">
+        <is>
+          <t>-37.36243043332918,175.93745455991834</t>
+        </is>
+      </c>
+      <c r="G725" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-04 22:00:02+00:00</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>-37.359587362224254,175.93796875059405</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>-37.36030547880758,175.9379677591621</t>
+        </is>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>-37.36100663294765,175.93773198052625</t>
+        </is>
+      </c>
+      <c r="E726" t="inlineStr">
+        <is>
+          <t>-37.36172370946334,175.93771468000293</t>
+        </is>
+      </c>
+      <c r="F726" t="inlineStr">
+        <is>
+          <t>-37.36243925163668,175.93774778641014</t>
+        </is>
+      </c>
+      <c r="G726" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-12 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>-37.35959564766169,175.93806375191824</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>-37.36030026088168,175.93790400558558</t>
+        </is>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>-37.36101822152186,175.93792188639833</t>
+        </is>
+      </c>
+      <c r="E727" t="inlineStr">
+        <is>
+          <t>-37.36172117319173,175.93764765735395</t>
+        </is>
+      </c>
+      <c r="F727" t="inlineStr">
+        <is>
+          <t>-37.36243604433868,175.93764113447415</t>
+        </is>
+      </c>
+      <c r="G727" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0201/nzd0201.xlsx
+++ b/data/nzd0201/nzd0201.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G727"/>
+  <dimension ref="A1:G729"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18866,6 +18866,60 @@
         <v>349.3947058823529</v>
       </c>
       <c r="G727" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B728" t="n">
+        <v>352.2266666666667</v>
+      </c>
+      <c r="C728" t="n">
+        <v>354.0566666666667</v>
+      </c>
+      <c r="D728" t="n">
+        <v>345.47</v>
+      </c>
+      <c r="E728" t="n">
+        <v>351.8211111111111</v>
+      </c>
+      <c r="F728" t="n">
+        <v>356.6111764705882</v>
+      </c>
+      <c r="G728" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-28 22:00:04+00:00</t>
+        </is>
+      </c>
+      <c r="B729" t="n">
+        <v>350.0066666666667</v>
+      </c>
+      <c r="C729" t="n">
+        <v>345.3266666666667</v>
+      </c>
+      <c r="D729" t="n">
+        <v>364.28</v>
+      </c>
+      <c r="E729" t="n">
+        <v>363.7977777777778</v>
+      </c>
+      <c r="F729" t="n">
+        <v>367.8382352941176</v>
+      </c>
+      <c r="G729" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -18882,7 +18936,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B757"/>
+  <dimension ref="A1:B759"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26460,6 +26514,26 @@
       </c>
       <c r="B757" t="n">
         <v>0.83</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B758" t="n">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>2025-09-28 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B759" t="n">
+        <v>0.39</v>
       </c>
     </row>
   </sheetData>
@@ -26998,7 +27072,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G727"/>
+  <dimension ref="A1:G729"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51497,6 +51571,80 @@
         </is>
       </c>
     </row>
+    <row r="728">
+      <c r="A728" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>-37.35959147288909,175.93801588361163</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>-37.36030160415388,175.93792041789067</t>
+        </is>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>-37.361005864026616,175.93771938013796</t>
+        </is>
+      </c>
+      <c r="E728" t="inlineStr">
+        <is>
+          <t>-37.361723938983296,175.93772074526888</t>
+        </is>
+      </c>
+      <c r="F728" t="inlineStr">
+        <is>
+          <t>-37.36243849130836,175.93772250300316</t>
+        </is>
+      </c>
+      <c r="G728" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-28 22:00:04+00:00</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>-37.35958930126049,175.93799098361933</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>-37.36029358429466,175.93782243044961</t>
+        </is>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>-37.361018777600925,175.93793099918105</t>
+        </is>
+      </c>
+      <c r="E729" t="inlineStr">
+        <is>
+          <t>-37.36172904694541,175.93785572979186</t>
+        </is>
+      </c>
+      <c r="F729" t="inlineStr">
+        <is>
+          <t>-37.3624422980813,175.93784909248663</t>
+        </is>
+      </c>
+      <c r="G729" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0201/nzd0201.xlsx
+++ b/data/nzd0201/nzd0201.xlsx
@@ -26707,28 +26707,28 @@
         <v>0.0462</v>
       </c>
       <c r="I2" t="n">
-        <v>0.009381584246633342</v>
+        <v>0.009355589932940122</v>
       </c>
       <c r="J2" t="n">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="K2" t="n">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="L2" t="n">
-        <v>4.74855760745907e-05</v>
+        <v>4.753032879123431e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>7.987337141062368</v>
+        <v>7.965122656802538</v>
       </c>
       <c r="N2" t="n">
-        <v>100.5692887912088</v>
+        <v>100.248334664747</v>
       </c>
       <c r="O2" t="n">
-        <v>10.02842404324871</v>
+        <v>10.01240903403107</v>
       </c>
       <c r="P2" t="n">
-        <v>350.9134540329281</v>
+        <v>350.9137266122796</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26785,28 +26785,28 @@
         <v>0.0509</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0552924326085306</v>
+        <v>0.05238024974760341</v>
       </c>
       <c r="J3" t="n">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="K3" t="n">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001338185254553426</v>
+        <v>0.001207648380203818</v>
       </c>
       <c r="M3" t="n">
-        <v>9.13885545202252</v>
+        <v>9.124321743923844</v>
       </c>
       <c r="N3" t="n">
-        <v>123.7304771209962</v>
+        <v>123.4588157423859</v>
       </c>
       <c r="O3" t="n">
-        <v>11.12342020787654</v>
+        <v>11.11120226358902</v>
       </c>
       <c r="P3" t="n">
-        <v>352.9190684475165</v>
+        <v>352.9492650986848</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26863,28 +26863,28 @@
         <v>0.054</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1346691519776407</v>
+        <v>0.1369671197431281</v>
       </c>
       <c r="J4" t="n">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="K4" t="n">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006825380433823525</v>
+        <v>0.007088183304806317</v>
       </c>
       <c r="M4" t="n">
-        <v>9.457822627471323</v>
+        <v>9.458431276558349</v>
       </c>
       <c r="N4" t="n">
-        <v>144.4165154722974</v>
+        <v>144.2746751736628</v>
       </c>
       <c r="O4" t="n">
-        <v>12.01734227990105</v>
+        <v>12.01143934645897</v>
       </c>
       <c r="P4" t="n">
-        <v>347.7202342959935</v>
+        <v>347.696482747778</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26935,28 +26935,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.2967176069714823</v>
+        <v>0.2991712075854128</v>
       </c>
       <c r="J5" t="n">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="K5" t="n">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03443519916685356</v>
+        <v>0.03516329642777116</v>
       </c>
       <c r="M5" t="n">
-        <v>9.366848601238575</v>
+        <v>9.355132574835796</v>
       </c>
       <c r="N5" t="n">
-        <v>134.0612862035962</v>
+        <v>133.789030091982</v>
       </c>
       <c r="O5" t="n">
-        <v>11.57848376099376</v>
+        <v>11.56672080115976</v>
       </c>
       <c r="P5" t="n">
-        <v>346.162647247577</v>
+        <v>346.1371388433433</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27013,28 +27013,28 @@
         <v>0.1067</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2434077158407037</v>
+        <v>0.2444191781473034</v>
       </c>
       <c r="J6" t="n">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="K6" t="n">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02172570257514672</v>
+        <v>0.02202640712844106</v>
       </c>
       <c r="M6" t="n">
-        <v>9.622648367863933</v>
+        <v>9.608645531509778</v>
       </c>
       <c r="N6" t="n">
-        <v>146.0653996103642</v>
+        <v>145.6887179607947</v>
       </c>
       <c r="O6" t="n">
-        <v>12.08575192573322</v>
+        <v>12.0701581580688</v>
       </c>
       <c r="P6" t="n">
-        <v>354.3026143303815</v>
+        <v>354.2921227550879</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">

--- a/data/nzd0201/nzd0201.xlsx
+++ b/data/nzd0201/nzd0201.xlsx
@@ -26698,13 +26698,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0436</v>
+        <v>0.0498</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0462</v>
+        <v>0.0587</v>
       </c>
       <c r="I2" t="n">
         <v>0.009372018458170059</v>
@@ -26776,13 +26776,13 @@
         <v>0.2500594812392574</v>
       </c>
       <c r="F3" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0441</v>
+        <v>0.0487</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0509</v>
+        <v>0.0552</v>
       </c>
       <c r="I3" t="n">
         <v>0.05239402326797023</v>
@@ -26854,13 +26854,13 @@
         <v>0.5000535690905072</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0448</v>
+        <v>0.0815</v>
       </c>
       <c r="H4" t="n">
-        <v>0.054</v>
+        <v>0.1059</v>
       </c>
       <c r="I4" t="n">
         <v>0.136967119743128</v>
@@ -26931,9 +26931,15 @@
       <c r="E5" t="n">
         <v>0.7501126459091043</v>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0805</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1138</v>
+      </c>
       <c r="I5" t="n">
         <v>0.2991756209655687</v>
       </c>
@@ -27004,13 +27010,13 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.08500000000000001</v>
       </c>
-      <c r="G6" t="n">
-        <v>0.0736</v>
-      </c>
       <c r="H6" t="n">
-        <v>0.1067</v>
+        <v>0.1165</v>
       </c>
       <c r="I6" t="n">
         <v>0.2444244946067192</v>
